--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 2:30 PM</t>
+    <t>Friday, 20 June, 2025 2:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -137,7 +137,19 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 2:31 PM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Friday, 20 June, 2025 3:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,38 +1009,71 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>258.76499999999999</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>28</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>293.76499999999999</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>47</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>48</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1117,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -149,7 +149,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 3:46 PM</t>
+    <t>Friday, 20 June, 2025 4:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -92,9 +107,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -149,7 +158,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 4:22 PM</t>
+    <t>Friday, 20 June, 2025 4:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -873,7 +882,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -882,20 +891,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -906,7 +915,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -915,20 +924,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -939,7 +948,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -955,13 +964,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -972,7 +981,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -988,24 +997,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1014,66 +1023,99 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c t="s" r="Q14" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>293.76499999999999</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>46</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>32</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>47</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>48</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>398.76499999999999</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1122,10 +1164,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 4:30 PM</t>
+    <t>Friday, 20 June, 2025 4:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -62,6 +62,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -89,9 +110,6 @@
     <t>105.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -158,7 +176,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 4:35 PM</t>
+    <t>Friday, 20 June, 2025 5:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -849,7 +867,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -858,14 +876,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -875,14 +893,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -891,14 +909,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -908,14 +926,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -924,31 +942,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -957,31 +975,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -990,20 +1008,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1014,7 +1032,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1030,24 +1048,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,66 +1074,132 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>48</v>
       </c>
-      <c t="s" r="Q15" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>398.76499999999999</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>38</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>49</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c t="s" r="Q16" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>52</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>38</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>656.76499999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>57</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1253,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -101,15 +113,24 @@
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
     <t>105.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -176,7 +197,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 5:21 PM</t>
+    <t>Friday, 20 June, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -933,7 +954,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -942,14 +963,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -959,14 +980,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -982,7 +1003,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -992,14 +1013,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1008,28 +1029,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1041,20 +1062,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1065,7 +1086,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1081,21 +1102,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1107,20 +1128,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1131,7 +1152,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1147,59 +1168,125 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>656.76499999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>55</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>45</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>56</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>45</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>942.76499999999999</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>62</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>63</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>64</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1263,10 +1350,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 5:24 PM</t>
+    <t>Friday, 20 June, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DOXIPROCT RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>194.00</t>
   </si>
   <si>
@@ -110,6 +119,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -143,12 +158,24 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -167,12 +194,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -197,7 +218,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 5:41 PM</t>
+    <t>Friday, 20 June, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -904,7 +925,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -914,11 +935,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>18</v>
@@ -930,14 +951,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -970,7 +991,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -980,14 +1001,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -996,14 +1017,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1013,14 +1034,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1036,7 +1057,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1046,14 +1067,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1062,14 +1083,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1079,14 +1100,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1095,28 +1116,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1128,31 +1149,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1161,20 +1182,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1201,24 +1222,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1227,66 +1248,165 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>942.76499999999999</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>22</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>51</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>52</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>62</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>51</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>63</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>51</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1069.7650000000001</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>70</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>71</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1360,10 +1480,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -44,15 +44,42 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -65,15 +92,24 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
     <t>144.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DOXIPROCT RECTAL OINT. 30 GM</t>
   </si>
   <si>
@@ -107,18 +143,12 @@
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>59.00</t>
   </si>
   <si>
     <t>118.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>FUTAPAN 40MG 28 E.C. TABS.</t>
   </si>
   <si>
@@ -152,12 +182,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -179,7 +203,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -218,7 +242,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 5:58 PM</t>
+    <t>Friday, 20 June, 2025 6:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -909,7 +933,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -918,14 +942,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -942,7 +966,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -951,7 +975,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -968,14 +992,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -984,14 +1008,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1001,14 +1025,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1017,14 +1041,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1034,14 +1058,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1050,14 +1074,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1067,11 +1091,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1083,14 +1107,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1100,14 +1124,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1116,14 +1140,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1133,14 +1157,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1149,14 +1173,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1166,14 +1190,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1182,31 +1206,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1215,31 +1239,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1248,31 +1272,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1281,31 +1305,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1314,20 +1338,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1338,7 +1362,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1354,59 +1378,158 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>68</v>
       </c>
-      <c t="s" r="Q22" s="12">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>34</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>59</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>60</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1069.7650000000001</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>69</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>70</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>59</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>71</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>74</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>59</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1169.5050000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>77</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>78</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>79</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1495,10 +1618,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -209,12 +227,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -242,7 +254,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 6:03 PM</t>
+    <t>Friday, 20 June, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1213,7 +1225,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1246,7 +1258,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,11 +1268,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1272,14 +1284,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,14 +1301,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1305,31 +1317,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1338,20 +1350,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1362,7 +1374,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1384,7 +1396,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1417,18 +1429,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1437,31 +1449,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1470,66 +1482,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1169.5050000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>74</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>62</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>75</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>77</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>78</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>62</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>79</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1340.5050000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>81</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>82</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>83</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1633,10 +1711,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -230,6 +230,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -254,7 +257,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 6:22 PM</t>
+    <t>Friday, 20 June, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1503,10 +1506,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1515,14 +1518,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1532,11 +1535,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1548,14 +1551,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1565,11 +1568,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1577,13 +1580,13 @@
     </row>
     <row r="28" ht="24.75" customHeight="1">
       <c r="P28" s="13">
-        <v>1340.5050000000001</v>
+        <v>1355.5050000000001</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c t="s" r="A29" s="14">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1591,13 +1594,13 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c t="s" r="G29" s="15">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
       <c t="s" r="K29" s="17">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -215,6 +227,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -257,7 +278,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 6:26 PM</t>
+    <t>Friday, 20 June, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1018,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1007,14 +1028,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1023,14 +1044,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1096,7 +1117,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1106,11 +1127,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1122,14 +1143,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1139,11 +1160,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1155,14 +1176,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1172,14 +1193,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1188,14 +1209,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1205,14 +1226,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1221,14 +1242,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1238,14 +1259,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1254,14 +1275,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1271,11 +1292,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1287,14 +1308,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1337,14 +1358,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1353,31 +1374,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1386,28 +1407,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1419,31 +1440,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1452,31 +1473,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1485,31 +1506,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1518,31 +1539,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1551,66 +1572,132 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>81</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>82</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>66</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>83</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>85</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>86</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>66</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>87</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1355.5050000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>82</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>83</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>84</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1375.385</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>90</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>91</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1724,10 +1811,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>47.0250</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -242,18 +254,24 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -278,7 +296,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 6:31 PM</t>
+    <t>Friday, 20 June, 2025 6:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -985,7 +1003,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -995,14 +1013,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1011,14 +1029,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1035,7 +1053,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1051,7 +1069,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1061,14 +1079,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1077,14 +1095,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1150,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1160,11 +1178,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,11 +1211,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,14 +1244,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1242,14 +1260,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1292,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,11 +1343,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1391,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,31 +1425,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,28 +1458,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1473,31 +1491,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,31 +1524,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1539,31 +1557,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1572,31 +1590,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1605,31 +1623,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1638,66 +1656,132 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>87</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>88</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>70</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>89</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>91</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>92</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>70</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>93</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1375.385</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>89</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>90</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>91</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1415.0650000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1821,10 +1905,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -197,6 +197,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -296,7 +305,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 6:56 PM</t>
+    <t>Friday, 20 June, 2025 6:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1399,7 +1408,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,11 +1418,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1425,14 +1434,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1442,14 +1451,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1458,31 +1467,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1491,20 +1500,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1537,7 +1546,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1548,7 +1557,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1578,10 +1587,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1603,18 +1612,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1623,28 +1632,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1663,24 +1672,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1689,28 +1698,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1722,66 +1731,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>94</v>
       </c>
-      <c t="s" r="Q31" s="12">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>95</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>73</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>96</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1415.0650000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>95</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>96</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>97</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1435.0650000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>98</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>99</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>100</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +1957,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -239,6 +239,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -305,7 +317,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 6:57 PM</t>
+    <t>Friday, 20 June, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1552,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,11 +1562,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1566,7 +1578,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1583,14 +1595,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,7 +1611,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1616,14 +1628,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,7 +1644,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1649,14 +1661,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,14 +1677,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,11 +1694,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1698,14 +1710,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1715,14 +1727,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1731,14 +1743,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1748,11 +1760,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1788,42 +1800,75 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>98</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>99</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>73</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>100</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1435.0650000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>98</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>99</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>100</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1485.0650000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>102</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>103</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>104</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1962,10 +2007,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>194.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -296,9 +308,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -317,7 +326,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 7:04 PM</t>
+    <t>Friday, 20 June, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1288,7 +1297,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1298,14 +1307,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1314,14 +1323,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1331,14 +1340,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1347,14 +1356,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1364,14 +1373,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1397,11 +1406,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1413,14 +1422,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1430,11 +1439,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1496,14 +1505,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1512,31 +1521,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1545,20 +1554,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1585,21 +1594,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1611,7 +1620,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1624,18 +1633,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1644,7 +1653,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1657,18 +1666,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1677,7 +1686,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1690,18 +1699,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1710,28 +1719,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1743,31 +1752,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1776,28 +1785,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1816,59 +1825,92 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>101</v>
       </c>
-      <c t="s" r="Q33" s="12">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>102</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>77</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>103</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1485.0650000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>102</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>103</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>104</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1511.0650000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>105</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>106</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>107</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2012,10 +2054,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 7:16 PM</t>
+    <t>Friday, 20 June, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -125,60 +125,63 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DOXIPROCT RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ENRICH ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DOXIPROCT RECTAL OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
     <t>59.00</t>
   </si>
   <si>
@@ -230,6 +233,21 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -242,9 +260,6 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -326,7 +341,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 7:27 PM</t>
+    <t>Friday, 20 June, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1165,7 +1180,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1175,14 +1190,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1191,14 +1206,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1208,11 +1223,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1224,14 +1239,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1241,11 +1256,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1257,14 +1272,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1274,11 +1289,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1290,14 +1305,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1307,11 +1322,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1323,14 +1338,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1340,14 +1355,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1356,14 +1371,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1373,14 +1388,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1389,14 +1404,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1406,14 +1421,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1422,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1439,11 +1454,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1455,14 +1470,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1472,11 +1487,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1488,14 +1503,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1505,11 +1520,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1521,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1538,14 +1553,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1554,31 +1569,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1587,31 +1602,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1620,28 +1635,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1653,31 +1668,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1686,31 +1701,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1719,31 +1734,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1752,31 +1767,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1785,31 +1800,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1818,31 +1833,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1851,66 +1866,132 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>103</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>52</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>76</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>104</v>
       </c>
-      <c t="s" r="Q34" s="12">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>107</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>76</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>108</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1511.0650000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>105</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>106</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>107</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1617.0650000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>110</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>111</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>112</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2059,10 +2140,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -302,13 +314,16 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
     <t>4:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
   </si>
   <si>
     <t>30.00</t>
@@ -1180,7 +1195,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1190,14 +1205,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1206,14 +1221,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1230,7 +1245,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1246,7 +1261,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1256,11 +1271,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1272,14 +1287,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1305,14 +1320,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1322,11 +1337,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1338,14 +1353,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1395,7 +1410,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1411,7 +1426,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1421,14 +1436,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1437,14 +1452,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,14 +1469,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1485,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,11 +1502,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1503,14 +1518,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,11 +1535,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1536,14 +1551,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1582,18 +1597,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1602,31 +1617,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1635,31 +1650,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1681,7 +1696,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1708,21 +1723,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1734,31 +1749,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,31 +1782,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,31 +1815,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1833,28 +1848,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1866,31 +1881,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1899,28 +1914,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1932,66 +1947,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>112</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>80</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>113</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1617.0650000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>110</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>111</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>112</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1712.0650000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>115</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>116</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>117</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2150,10 +2198,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -92,6 +92,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CEMAZON FACE CLEANSER</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>CYMBATEX 60 MG 30 CAP</t>
+  </si>
+  <si>
+    <t>295.50</t>
+  </si>
+  <si>
+    <t>97.5150</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -146,9 +170,6 @@
     <t>DOXIPROCT RECTAL OINT. 30 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -215,6 +236,15 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -251,9 +281,6 @@
     <t>5:3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -356,7 +383,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 7:33 PM</t>
+    <t>Friday, 20 June, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1096,24 +1123,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1122,14 +1149,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1139,11 +1166,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>26</v>
@@ -1155,14 +1182,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1172,14 +1199,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1188,14 +1215,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1205,14 +1232,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1221,14 +1248,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1238,14 +1265,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1254,14 +1281,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1271,11 +1298,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1287,14 +1314,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1304,14 +1331,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1320,14 +1347,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1337,11 +1364,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1353,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1386,14 +1413,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1426,7 +1453,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,14 +1463,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,14 +1479,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1469,14 +1496,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1485,14 +1512,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1502,14 +1529,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1518,14 +1545,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1535,14 +1562,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1551,14 +1578,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1568,11 +1595,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1584,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1624,24 +1651,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1650,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1667,14 +1694,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1683,28 +1710,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1716,31 +1743,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1749,31 +1776,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,31 +1809,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1815,20 +1842,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1839,7 +1866,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1855,21 +1882,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1881,31 +1908,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1914,31 +1941,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1947,31 +1974,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1980,66 +2007,165 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1712.0650000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>116</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>28</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>29</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>96</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>116</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>117</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>63</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>29</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>118</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>121</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>29</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>122</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2134.5799999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>124</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>125</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>126</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2203,10 +2329,25 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEMAZON FACE CLEANSER</t>
   </si>
   <si>
@@ -254,6 +266,18 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -266,9 +290,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -341,7 +362,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1129,18 +1153,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1149,31 +1173,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1182,14 +1206,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1199,11 +1223,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>26</v>
@@ -1215,14 +1239,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1255,7 +1279,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1265,14 +1289,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1281,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1321,7 +1345,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1331,14 +1355,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1347,14 +1371,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1364,14 +1388,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1380,14 +1404,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1397,11 +1421,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1413,14 +1437,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1446,14 +1470,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1463,11 +1487,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1479,14 +1503,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1536,7 +1560,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1552,7 +1576,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1562,14 +1586,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1578,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,14 +1619,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1611,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,11 +1652,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1644,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1661,11 +1685,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,11 +1718,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1710,14 +1734,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,14 +1751,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,20 +1767,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1767,7 +1791,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1783,7 +1807,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,14 +1817,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,31 +1833,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1842,31 +1866,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1875,20 +1899,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1915,24 +1939,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1941,31 +1965,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,31 +1998,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,31 +2031,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2040,31 +2064,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2073,31 +2097,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2106,66 +2130,132 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>125</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>67</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>33</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>126</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>128</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>129</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>33</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>130</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2134.5799999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>124</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>125</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>126</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2168.3400000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>132</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>133</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>134</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2344,10 +2434,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 7:59 PM</t>
+    <t>Friday, 20 June, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 8:01 PM</t>
+    <t>Friday, 20 June, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -407,7 +416,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 8:02 PM</t>
+    <t>Friday, 20 June, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1741,7 +1750,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,14 +1760,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1791,7 +1800,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1807,7 +1816,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1840,24 +1849,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1866,31 +1875,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1899,31 +1908,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1932,14 +1941,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2022,7 +2031,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,7 +2064,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,7 +2073,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2081,14 +2090,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2097,14 +2106,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,11 +2123,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2180,11 +2189,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2203,7 +2212,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2213,49 +2222,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>131</v>
       </c>
-      <c t="s" r="Q42" s="12">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>132</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>33</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>133</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2168.3400000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>132</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>133</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>134</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2424.3400000000001</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>135</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>136</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>137</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2444,10 +2486,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 8:03 PM</t>
+    <t>Friday, 20 June, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOXIPROCT RECTAL OINT. 30 GM</t>
   </si>
   <si>
@@ -221,6 +230,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -371,10 +389,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -413,10 +431,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Friday, 20 June, 2025 8:45 PM</t>
+    <t>Friday, 20 June, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1420,7 +1435,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1437,7 +1452,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1463,11 +1478,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1479,14 +1494,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1496,11 +1511,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1519,7 +1534,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1552,7 +1567,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1562,11 +1577,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1595,14 +1610,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1628,7 +1643,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1651,7 +1666,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1661,14 +1676,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1694,14 +1709,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1717,7 +1732,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1783,7 +1798,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1793,14 +1808,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1809,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1826,11 +1841,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1866,7 +1881,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1882,24 +1897,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,7 +1980,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1987,18 +2002,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2024,11 +2039,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2064,7 +2079,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,7 +2112,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2106,7 +2121,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2123,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2163,7 +2178,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2172,7 +2187,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2255,49 +2270,115 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>134</v>
       </c>
-      <c t="s" r="Q43" s="12">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>70</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>33</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>135</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>137</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>138</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>33</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>139</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2424.3400000000001</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>135</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>136</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>137</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2520.3400000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>140</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>141</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>142</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2491,10 +2572,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -242,72 +242,75 @@
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -380,7 +383,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -401,9 +404,6 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -431,7 +431,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 8:56 PM</t>
+    <t>Friday, 20 June, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,7 +1666,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1676,14 +1676,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1897,7 +1897,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,11 +1907,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1956,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -1989,14 +1989,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2022,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,11 +2039,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2055,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2138,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2171,14 +2171,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2204,11 +2204,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2220,14 +2220,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2348,7 +2348,7 @@
     </row>
     <row r="46" ht="25.5" customHeight="1">
       <c r="P46" s="13">
-        <v>2520.3400000000001</v>
+        <v>2642.3400000000001</v>
       </c>
       <c r="Q46" s="13"/>
     </row>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>7.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>CEMAZON FACE CLEANSER</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -155,7 +164,7 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>144.0000</t>
+    <t>288.0000</t>
   </si>
   <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
@@ -284,6 +293,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -293,6 +311,24 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>156.4200</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -332,12 +368,6 @@
     <t>5:3</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -431,7 +461,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:03 PM</t>
+    <t>Friday, 20 June, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1210,18 +1240,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1230,20 +1260,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1254,7 +1284,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1270,7 +1300,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1303,7 +1333,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1313,11 +1343,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>26</v>
@@ -1329,14 +1359,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1353,7 +1383,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1369,7 +1399,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1379,14 +1409,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1395,14 +1425,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1419,7 +1449,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1435,7 +1465,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1452,7 +1482,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1485,7 +1515,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1501,7 +1531,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1511,11 +1541,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1527,14 +1557,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1544,11 +1574,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1567,7 +1597,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1600,7 +1630,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1610,11 +1640,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1626,14 +1656,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1650,7 +1680,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1666,7 +1696,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1683,7 +1713,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1692,7 +1722,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1709,14 +1739,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1725,14 +1755,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,14 +1772,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1765,7 +1795,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1798,7 +1828,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1831,7 +1861,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1864,7 +1894,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,14 +1904,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,11 +1937,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1923,14 +1953,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1970,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,28 +1986,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -1989,14 +2019,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2006,14 +2036,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2022,28 +2052,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2055,28 +2085,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2088,31 +2118,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,31 +2151,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,31 +2184,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,28 +2217,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2220,28 +2250,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2253,31 +2283,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,31 +2316,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,66 +2349,198 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2642.3400000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>140</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>82</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>36</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>141</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>23</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>36</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>123</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>73</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>36</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>145</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>147</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>148</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>36</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>149</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>3128.3400000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>150</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>151</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>152</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2744,30 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -461,7 +461,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:05 PM</t>
+    <t>Friday, 20 June, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>COXTORI 90MG TAB</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
     <t>CYMBATEX 60 MG 30 CAP</t>
   </si>
   <si>
@@ -461,7 +470,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:06 PM</t>
+    <t>Friday, 20 June, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,13 +1309,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1317,7 +1326,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1333,7 +1342,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1366,7 +1375,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1376,11 +1385,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1432,7 +1441,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1442,14 +1451,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1482,7 +1491,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1498,7 +1507,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1515,7 +1524,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1531,7 +1540,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1548,7 +1557,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1607,11 +1616,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1630,7 +1639,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1663,7 +1672,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1673,11 +1682,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1713,7 +1722,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1746,7 +1755,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1755,7 +1764,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1828,7 +1837,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1977,7 +1986,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1993,7 +2002,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2010,7 +2019,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2026,7 +2035,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,11 +2045,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,14 +2078,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2125,24 +2134,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2151,31 +2160,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2184,31 +2193,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2234,11 +2243,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2307,7 +2316,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,7 +2349,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2349,7 +2358,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2399,11 +2408,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2422,7 +2431,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2488,7 +2497,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2498,49 +2507,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>151</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>36</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>152</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>3128.3400000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>150</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>151</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>152</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>3225.3400000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>153</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>154</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>155</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2764,10 +2806,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -470,7 +470,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:08 PM</t>
+    <t>Friday, 20 June, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -227,6 +236,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -236,6 +254,18 @@
     <t>194.0000</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -305,9 +335,6 @@
     <t>INTEGROL 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>117.00</t>
-  </si>
-  <si>
     <t>117.0000</t>
   </si>
   <si>
@@ -341,9 +368,6 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -449,6 +473,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -470,7 +500,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:09 PM</t>
+    <t>Friday, 20 June, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1243,7 +1273,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1253,14 +1283,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1269,31 +1299,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1302,7 +1332,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1315,7 +1345,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1342,13 +1372,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1359,7 +1389,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1375,7 +1405,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1408,7 +1438,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1418,11 +1448,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1434,14 +1464,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1458,7 +1488,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1474,7 +1504,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1484,14 +1514,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1500,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1524,7 +1554,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1540,7 +1570,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1557,7 +1587,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1573,7 +1603,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1590,7 +1620,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1616,11 +1646,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1632,14 +1662,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1649,11 +1679,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1672,7 +1702,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1705,7 +1735,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1715,14 +1745,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1731,14 +1761,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1748,14 +1778,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1764,14 +1794,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1788,7 +1818,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1797,14 +1827,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1814,14 +1844,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1830,14 +1860,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1863,14 +1893,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1880,14 +1910,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1946,11 +1976,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1962,7 +1992,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1979,11 +2009,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1995,7 +2025,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2012,14 +2042,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2028,14 +2058,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2045,14 +2075,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2068,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,14 +2108,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2094,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2111,14 +2141,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2127,14 +2157,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2174,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,28 +2190,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2193,14 +2223,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,14 +2240,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,20 +2256,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2272,18 +2302,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,31 +2322,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,31 +2355,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,31 +2388,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2391,7 +2421,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2404,15 +2434,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2431,13 +2461,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2448,7 +2478,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2470,18 +2500,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2490,31 +2520,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2523,20 +2553,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2544,45 +2574,177 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>3225.3400000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>137</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>39</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>155</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>156</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>23</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>39</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>134</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>154</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>155</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>157</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>86</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>39</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>158</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>160</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>161</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>39</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>162</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>3372.7800000000002</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>163</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>164</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>165</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2811,10 +2973,30 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:5</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>41.5800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -197,6 +206,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -299,6 +314,15 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>FUSIDERM 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40MG 28 E.C. TABS.</t>
   </si>
   <si>
@@ -464,15 +488,12 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -500,7 +521,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:21 PM</t>
+    <t>Friday, 20 June, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,7 +1228,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1217,14 +1238,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1233,14 +1254,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1250,14 +1271,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1266,14 +1287,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1306,7 +1327,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1316,14 +1337,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1332,28 +1353,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1365,20 +1386,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1389,7 +1410,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1405,13 +1426,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1422,7 +1443,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1438,7 +1459,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1455,7 +1476,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1471,7 +1492,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1481,14 +1502,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1497,14 +1518,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1521,7 +1542,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1537,7 +1558,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1547,14 +1568,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1563,14 +1584,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1587,7 +1608,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1603,7 +1624,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1613,14 +1634,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1629,14 +1650,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1646,14 +1667,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1662,14 +1683,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1679,11 +1700,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1712,14 +1733,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1728,14 +1749,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1745,14 +1766,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1761,14 +1782,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1778,14 +1799,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1794,14 +1815,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1811,14 +1832,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1844,14 +1865,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1860,14 +1881,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1877,14 +1898,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1893,14 +1914,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1910,14 +1931,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1926,7 +1947,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1943,14 +1964,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1959,7 +1980,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1976,14 +1997,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1999,7 +2020,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2016,7 +2037,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2032,7 +2053,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2042,11 +2063,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2098,7 +2119,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2115,7 +2136,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2131,7 +2152,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2164,7 +2185,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,14 +2195,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2261,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2273,11 +2294,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2289,31 +2310,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2322,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,11 +2360,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2355,20 +2376,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2379,7 +2400,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2401,15 +2422,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2421,31 +2442,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2454,31 +2475,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2487,31 +2508,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,31 +2541,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2560,13 +2581,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2577,7 +2598,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2593,13 +2614,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2607,10 +2628,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2619,31 +2640,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,31 +2673,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2685,20 +2706,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2706,45 +2727,144 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>3372.7800000000002</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>163</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>27</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>42</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>142</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>164</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>91</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>42</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>165</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>167</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>168</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>42</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>169</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3429.1799999999998</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>170</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>171</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>172</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2993,10 +3113,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
     <t>1:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
     <t>11.5200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -179,12 +191,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -251,6 +257,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -455,6 +470,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -488,7 +509,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سويت كوكو</t>
@@ -503,6 +524,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -512,6 +536,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
@@ -521,7 +554,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:42 PM</t>
+    <t>Friday, 20 June, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1212,7 +1245,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1221,14 +1254,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1261,7 +1294,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1271,14 +1304,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1327,7 +1360,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1337,14 +1370,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1353,14 +1386,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1377,7 +1410,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1393,13 +1426,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1410,7 +1443,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1426,24 +1459,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1452,31 +1485,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1485,14 +1518,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1502,11 +1535,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1518,14 +1551,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1558,7 +1591,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1568,14 +1601,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1584,14 +1617,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1601,14 +1634,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1617,14 +1650,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1634,14 +1667,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1657,7 +1690,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,14 +1700,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1683,14 +1716,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1700,14 +1733,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1716,14 +1749,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,14 +1766,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1749,14 +1782,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1766,14 +1799,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1782,14 +1815,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1799,14 +1832,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1815,14 +1848,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,14 +1865,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1848,14 +1881,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1865,14 +1898,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1881,14 +1914,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1898,11 +1931,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1914,14 +1947,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,14 +1964,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1947,14 +1980,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1964,11 +1997,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1980,14 +2013,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2030,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,14 +2046,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2030,14 +2063,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2046,14 +2079,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2063,14 +2096,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2086,7 +2119,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2103,7 +2136,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2119,7 +2152,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,14 +2162,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,14 +2178,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,14 +2195,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2178,14 +2211,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2195,14 +2228,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2218,7 +2251,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2235,7 +2268,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2251,7 +2284,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,11 +2294,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2277,14 +2310,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,14 +2327,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,14 +2343,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2360,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,14 +2376,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2360,14 +2393,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,14 +2409,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2393,14 +2426,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,31 +2442,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2449,7 +2482,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,11 +2492,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2475,31 +2508,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,31 +2541,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,31 +2574,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,31 +2607,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2607,31 +2640,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,31 +2673,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,31 +2706,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2713,13 +2746,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2727,10 +2760,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,31 +2772,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2772,31 +2805,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2805,20 +2838,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2826,45 +2859,177 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3429.1799999999998</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>170</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>31</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>46</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>147</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>172</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>96</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>46</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>173</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>176</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>46</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>173</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>178</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>179</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>46</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>180</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3563.0599999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>181</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>182</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>183</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3128,10 +3293,30 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -449,13 +449,10 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
   </si>
   <si>
     <t>بيرسول حشرات طائره</t>
@@ -2595,10 +2592,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2607,14 +2604,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2624,11 +2621,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2640,14 +2637,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2673,7 +2670,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2690,11 +2687,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2706,7 +2703,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2723,11 +2720,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>135</v>
@@ -2739,7 +2736,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2756,14 +2753,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,7 +2769,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2789,11 +2786,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>135</v>
@@ -2805,7 +2802,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2838,14 +2835,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2855,11 +2852,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2871,7 +2868,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2892,7 +2889,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>135</v>
@@ -2904,7 +2901,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2921,11 +2918,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -2937,14 +2934,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2954,11 +2951,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -2970,14 +2967,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2987,7 +2984,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -2999,13 +2996,13 @@
     </row>
     <row r="62" ht="25.5" customHeight="1">
       <c r="P62" s="13">
-        <v>3563.0599999999999</v>
+        <v>3578.0599999999999</v>
       </c>
       <c r="Q62" s="13"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c t="s" r="A63" s="14">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3013,13 +3010,13 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c t="s" r="G63" s="15">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="16"/>
       <c t="s" r="K63" s="17">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -551,7 +551,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:43 PM</t>
+    <t>Friday, 20 June, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>COXTORI 90MG TAB</t>
   </si>
   <si>
@@ -236,6 +245,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>-19.9500</t>
+  </si>
+  <si>
+    <t>0:-4</t>
+  </si>
+  <si>
     <t>DOXIPROCT RECTAL OINT. 30 GM</t>
   </si>
   <si>
@@ -311,12 +335,6 @@
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -548,10 +566,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>Friday, 20 June, 2025 9:44 PM</t>
+    <t>Friday, 20 June, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,13 +1504,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1506,7 +1521,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1522,13 +1537,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1539,7 +1554,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1555,7 +1570,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1588,7 +1603,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1598,11 +1613,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1654,7 +1669,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1664,14 +1679,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1680,14 +1695,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1697,14 +1712,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1730,14 +1745,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1753,7 +1768,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1770,7 +1785,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1786,7 +1801,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1803,7 +1818,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1819,7 +1834,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1845,14 +1860,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1862,11 +1877,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1878,7 +1893,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1895,11 +1910,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1944,7 +1959,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1961,11 +1976,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,11 +2009,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2050,7 +2065,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,11 +2075,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,14 +2108,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,14 +2141,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2142,7 +2157,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2175,14 +2190,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,11 +2207,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,14 +2240,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2248,7 +2263,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2291,11 +2306,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2307,7 +2322,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2324,11 +2339,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2340,7 +2355,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2380,7 +2395,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2397,7 +2412,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2413,7 +2428,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2430,7 +2445,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2446,7 +2461,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,31 +2520,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,14 +2570,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,14 +2586,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,14 +2603,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,31 +2619,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2654,14 +2669,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2677,7 +2692,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2687,11 +2702,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2703,14 +2718,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,7 +2775,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,7 +2784,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2786,14 +2801,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2809,7 +2824,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2974,7 +2989,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2984,49 +2999,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>180</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>181</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>46</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>178</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3578.0599999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>180</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>181</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>182</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>183</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>184</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>46</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>80</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3613.1100000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>185</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>186</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>187</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3310,10 +3391,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -566,7 +566,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:52 PM</t>
+    <t>Friday, 20 June, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -464,6 +464,15 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -566,7 +575,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 9:56 PM</t>
+    <t>Friday, 20 June, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1504,7 +1513,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2659,24 +2668,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,10 +2715,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2735,11 +2744,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2768,11 +2777,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2808,7 +2817,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2841,7 +2850,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2850,7 +2859,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3022,7 +3031,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3065,49 +3074,82 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3613.1100000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>185</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>186</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>187</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>46</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>80</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3636.1100000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>188</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>189</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>190</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3401,10 +3443,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -158,7 +158,172 @@
     <t>250.0000</t>
   </si>
   <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
+    <t>COXTORI 90MG TAB</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
+    <t>CYMBATEX 60 MG 30 CAP</t>
+  </si>
+  <si>
+    <t>295.50</t>
+  </si>
+  <si>
+    <t>97.5150</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>-19.9500</t>
+  </si>
+  <si>
+    <t>0:-4</t>
+  </si>
+  <si>
+    <t>DOXIPROCT RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ENRICH ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
     <t>110.00</t>
@@ -167,174 +332,6 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>COXTORI 90MG TAB</t>
-  </si>
-  <si>
-    <t>97.00</t>
-  </si>
-  <si>
-    <t>97.0000</t>
-  </si>
-  <si>
-    <t>CYMBATEX 60 MG 30 CAP</t>
-  </si>
-  <si>
-    <t>295.50</t>
-  </si>
-  <si>
-    <t>97.5150</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>288.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>-19.9500</t>
-  </si>
-  <si>
-    <t>0:-4</t>
-  </si>
-  <si>
-    <t>DOXIPROCT RECTAL OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ENRICH ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -458,6 +455,21 @@
     <t>5:3</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:75</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -575,7 +587,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:01 PM</t>
+    <t>Friday, 20 June, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,13 +1525,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1530,7 +1542,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1546,13 +1558,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1563,7 +1575,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1579,7 +1591,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1612,7 +1624,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1622,11 +1634,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1638,14 +1650,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1655,14 +1667,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1678,7 +1690,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1688,14 +1700,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1704,14 +1716,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1721,14 +1733,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1777,7 +1789,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1794,7 +1806,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1810,7 +1822,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1820,14 +1832,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1853,14 +1865,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1886,11 +1898,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1919,11 +1931,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1942,7 +1954,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1975,7 +1987,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1992,7 +2004,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2008,7 +2020,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2025,7 +2037,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2041,7 +2053,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2124,7 +2136,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2140,7 +2152,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2183,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2216,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2249,14 +2261,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2282,11 +2294,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2298,7 +2310,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2315,11 +2327,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2331,7 +2343,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2348,11 +2360,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2364,7 +2376,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2381,11 +2393,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2397,7 +2409,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2430,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2447,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,11 +2492,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,14 +2525,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2529,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2546,11 +2558,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2562,31 +2574,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2595,31 +2607,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2628,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,7 +2657,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2661,7 +2673,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2678,11 +2690,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2711,11 +2723,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,11 +2789,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2793,7 +2805,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2810,11 +2822,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2826,7 +2838,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2843,14 +2855,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,7 +2871,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2876,14 +2888,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,7 +2904,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2909,14 +2921,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2925,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,11 +2954,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2975,11 +2987,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -2991,7 +3003,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3008,14 +3020,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3024,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3041,11 +3053,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3057,14 +3069,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3074,11 +3086,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3090,14 +3102,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3107,11 +3119,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3119,13 +3131,13 @@
     </row>
     <row r="65" ht="24.75" customHeight="1">
       <c r="P65" s="13">
-        <v>3636.1100000000001</v>
+        <v>3596.9499999999998</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c t="s" r="A66" s="14">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3133,13 +3145,13 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c t="s" r="G66" s="15">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
       <c t="s" r="K66" s="17">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>COXTORI 90MG TAB</t>
   </si>
   <si>
@@ -314,9 +326,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -470,6 +479,12 @@
     <t>0:12</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -482,7 +497,7 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -548,6 +563,12 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>72:0</t>
+  </si>
+  <si>
     <t>سويت كوكو</t>
   </si>
   <si>
@@ -587,7 +608,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:03 PM</t>
+    <t>Friday, 20 June, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,21 +1546,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1551,31 +1572,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1584,14 +1605,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1601,11 +1622,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1617,14 +1638,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,11 +1655,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1707,7 +1728,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1733,14 +1754,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1766,14 +1787,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1782,14 +1803,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1799,14 +1820,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1815,14 +1836,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1839,7 +1860,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1848,14 +1869,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1872,7 +1893,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1881,7 +1902,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1898,11 +1919,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1964,11 +1985,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2070,7 +2091,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2103,7 +2124,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2119,7 +2140,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2136,7 +2157,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2152,7 +2173,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2169,7 +2190,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2218,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2284,7 +2305,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,11 +2381,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2376,7 +2397,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2393,7 +2414,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2433,7 +2454,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2449,7 +2470,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2466,7 +2487,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,7 +2503,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2515,7 +2536,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2581,24 +2602,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2607,31 +2628,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2719,18 +2740,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,31 +2760,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,28 +2793,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,7 +2925,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2954,14 +2975,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3043,7 +3064,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3119,49 +3140,181 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3596.9499999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>31</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>46</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>165</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>191</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>50</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>46</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>192</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c t="s" r="Q66" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>194</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>195</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>46</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>192</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>198</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>46</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>81</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3675.9499999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>199</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>200</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>201</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3460,10 +3613,30 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -92,6 +92,9 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -104,9 +107,6 @@
     <t>APEXIDONE 4MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -170,6 +170,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
     <t>COXTORI 90MG TAB</t>
   </si>
   <si>
@@ -464,6 +473,15 @@
     <t>5:3</t>
   </si>
   <si>
+    <t>PIXCOLT 2.5 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>268.50</t>
+  </si>
+  <si>
+    <t>88.6050</t>
+  </si>
+  <si>
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
@@ -608,7 +626,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:04 PM</t>
+    <t>Friday, 20 June, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1348,7 +1366,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1513,7 +1531,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1579,13 +1597,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1596,7 +1614,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1612,13 +1630,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1629,7 +1647,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1645,7 +1663,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1678,7 +1696,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1688,11 +1706,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1704,14 +1722,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1744,7 +1762,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1754,14 +1772,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1843,7 +1861,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1860,7 +1878,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1876,7 +1894,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1942,7 +1960,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1952,11 +1970,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1985,11 +2003,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2008,7 +2026,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2041,7 +2059,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2058,7 +2076,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2074,7 +2092,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2091,7 +2109,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2107,7 +2125,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2157,7 +2175,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2173,7 +2191,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2190,7 +2208,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2206,7 +2224,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2223,7 +2241,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2272,7 +2290,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2338,7 +2356,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2371,7 +2389,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2404,7 +2422,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,11 +2432,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,7 +2465,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2470,7 +2488,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2487,7 +2505,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2503,7 +2521,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2520,7 +2538,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2536,7 +2554,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2569,7 +2587,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,14 +2597,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2635,24 +2653,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,31 +2679,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,31 +2844,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,28 +2877,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2932,7 +2950,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2998,7 +3016,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3015,7 +3033,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3064,7 +3082,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3206,14 +3224,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3262,7 +3280,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3272,49 +3290,115 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>201</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>46</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>198</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3675.9499999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>199</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>200</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>201</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>203</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>204</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>46</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>84</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3829.895</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>205</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>206</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>207</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3633,10 +3717,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>-33.6600</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -104,6 +119,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ANTOX 30 TABS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
     <t>APEXIDONE 4MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -296,9 +320,6 @@
     <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -446,12 +467,27 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>135.6300</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -506,7 +542,16 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
   </si>
   <si>
     <t>TRIACTIN 4MG 20 TAB</t>
@@ -569,9 +614,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>14:0</t>
   </si>
   <si>
@@ -626,7 +668,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:13 PM</t>
+    <t>Friday, 20 June, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1399,7 +1441,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1409,14 +1451,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1425,7 +1467,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1442,14 +1484,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1458,14 +1500,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1475,14 +1517,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1491,14 +1533,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1508,11 +1550,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1524,20 +1566,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1548,7 +1590,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1581,7 +1623,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1597,24 +1639,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1623,31 +1665,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1656,7 +1698,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1673,11 +1715,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1689,31 +1731,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1722,14 +1764,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1739,11 +1781,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1755,14 +1797,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,14 +1814,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1788,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,14 +1847,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1821,14 +1863,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1838,14 +1880,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1854,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,14 +1913,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1887,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,11 +1946,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1920,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,14 +1979,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1960,7 +2002,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1977,7 +2019,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1993,7 +2035,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,14 +2045,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2019,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,14 +2078,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2052,14 +2094,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,14 +2111,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2085,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,14 +2144,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2118,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2135,14 +2177,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2151,14 +2193,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2191,7 +2233,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2208,7 +2250,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2224,7 +2266,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,11 +2276,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2250,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2290,7 +2332,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2307,7 +2349,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2323,7 +2365,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,14 +2375,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2349,14 +2391,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,14 +2408,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2382,14 +2424,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,14 +2441,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2415,14 +2457,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2474,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2490,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,14 +2507,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,14 +2556,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,11 +2573,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2547,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,14 +2606,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2637,7 +2679,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2653,7 +2695,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2670,7 +2712,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,18 +2734,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2712,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,11 +2771,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2745,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2769,7 +2811,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2778,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2795,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2824,18 +2866,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2851,7 +2893,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2865,7 +2907,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2877,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,31 +2952,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,31 +2985,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,31 +3018,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3009,31 +3051,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,31 +3084,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3082,24 +3124,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,31 +3150,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,31 +3183,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,31 +3216,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,31 +3249,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3240,31 +3282,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>146</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3273,31 +3315,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3306,31 +3348,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3339,66 +3381,231 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3829.895</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>205</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>206</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>207</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>188</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>54</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>208</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>209</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>32</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>54</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>186</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>58</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>54</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>212</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>214</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>215</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>54</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>212</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>217</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>218</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>54</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>92</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3935.8649999999998</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>219</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>220</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>221</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3727,10 +3934,35 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -668,7 +668,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:31 PM</t>
+    <t>Friday, 20 June, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -398,6 +410,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -470,9 +491,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>-24.0000</t>
   </si>
   <si>
@@ -578,9 +596,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -638,6 +653,9 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -668,7 +686,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:32 PM</t>
+    <t>Friday, 20 June, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,7 +1723,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,11 +1733,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1731,31 +1749,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1764,31 +1782,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,11 +1832,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,11 +1865,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1920,7 +1938,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1946,14 +1964,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2052,7 +2070,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2085,7 +2103,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2094,7 +2112,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2111,11 +2129,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2177,11 +2195,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>30</v>
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2283,7 +2301,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2299,7 +2317,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,14 +2327,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2398,7 +2416,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2415,7 +2433,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2490,7 +2508,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2507,11 +2525,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,11 +2558,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2556,7 +2574,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2573,11 +2591,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2589,7 +2607,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2606,11 +2624,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2622,7 +2640,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,11 +2789,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2827,7 +2845,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2844,7 +2862,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2860,24 +2878,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,31 +2937,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,7 +2970,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,11 +3053,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3091,7 +3109,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,11 +3119,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>30</v>
@@ -3117,31 +3135,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,28 +3168,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3223,7 +3241,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,7 +3251,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3256,7 +3274,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,7 +3300,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>201</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,7 +3333,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>153</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3355,7 +3373,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3431,11 +3449,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3520,7 +3538,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,11 +3548,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3563,49 +3581,148 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>58</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>54</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>218</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>220</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>221</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>54</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>218</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3935.8649999999998</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>219</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>220</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>221</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>223</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>224</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>54</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>96</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4190.8649999999998</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>225</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>226</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>227</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3959,10 +4076,25 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -686,7 +686,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:45 PM</t>
+    <t>Friday, 20 June, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -479,6 +479,24 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>NEOZOLID 600MG 3 TAB</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -503,6 +521,12 @@
     <t>135.6300</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -551,6 +575,9 @@
     <t>0:12</t>
   </si>
   <si>
+    <t>REVAREST VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -581,6 +608,15 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -665,9 +701,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -677,16 +710,13 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:48 PM</t>
+    <t>Friday, 20 June, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2779,7 +2809,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2796,7 +2826,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2812,7 +2842,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2838,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2855,11 +2885,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2871,7 +2901,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2888,14 +2918,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2911,7 +2941,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2928,7 +2958,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2944,21 +2974,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2977,7 +3007,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2994,7 +3024,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3010,7 +3040,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3050,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,31 +3066,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3126,7 +3156,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,14 +3182,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3175,7 +3205,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,11 +3215,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3201,31 +3231,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3234,24 +3264,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3274,24 +3304,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3307,21 +3337,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3333,31 +3363,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3366,14 +3396,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3383,14 +3413,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>206</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3399,14 +3429,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3416,14 +3446,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3432,14 +3462,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3449,11 +3479,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3465,14 +3495,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,11 +3512,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3498,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3515,14 +3545,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,14 +3561,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3548,14 +3578,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,7 +3594,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3581,11 +3611,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>62</v>
@@ -3597,14 +3627,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3614,14 +3644,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3630,14 +3660,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3647,11 +3677,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3663,14 +3693,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3680,49 +3710,214 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>226</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>62</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>54</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>100</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>32</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>54</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>204</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>58</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>54</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>157</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>232</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>54</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>157</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>233</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>234</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>54</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>96</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q78" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4190.8649999999998</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>225</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>226</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>227</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4484.3649999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>235</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>236</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>237</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4091,10 +4286,35 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -648,6 +648,15 @@
   </si>
   <si>
     <t>3.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -3535,7 +3544,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3552,7 +3561,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3582,10 +3591,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>218</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>62</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3648,10 +3657,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,11 +3752,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3846,10 +3855,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3875,49 +3884,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>236</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>237</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>54</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>96</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4484.3649999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>235</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>236</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>237</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4584.3649999999998</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>238</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>239</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>240</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4311,10 +4353,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -725,7 +737,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 10:52 PM</t>
+    <t>Friday, 20 June, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1807,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1805,14 +1817,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1821,31 +1833,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1854,31 +1866,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1887,14 +1899,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,11 +1916,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1920,14 +1932,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,11 +1949,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1953,14 +1965,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,14 +1982,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,14 +1998,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2010,7 +2022,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2036,14 +2048,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2081,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,14 +2114,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2142,7 +2154,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2175,7 +2187,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,7 +2196,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2201,11 +2213,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2217,14 +2229,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2250,14 +2262,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,11 +2279,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2373,7 +2385,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2389,7 +2401,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2488,7 +2500,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2505,7 +2517,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,11 +2609,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,11 +2642,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2646,7 +2658,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2663,11 +2675,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2679,7 +2691,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2712,7 +2724,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2729,11 +2741,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2745,7 +2757,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,7 +2823,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2873,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2939,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,11 +3005,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,11 +3071,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3075,31 +3087,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,28 +3120,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3165,7 +3177,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,7 +3219,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3224,11 +3236,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3302,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3313,7 +3325,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,20 +3417,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3426,10 +3438,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,11 +3500,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,11 +3533,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,11 +3566,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3599,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,7 +3615,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3620,14 +3632,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>221</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,7 +3648,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3653,14 +3665,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>62</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3698,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,14 +3714,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,11 +3731,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3735,14 +3747,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3764,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3768,14 +3780,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3797,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3801,14 +3813,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,14 +3846,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,14 +3863,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,14 +3879,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,14 +3896,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3917,49 +3929,82 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4584.3649999999998</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>238</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>239</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>240</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>241</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>54</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>100</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4617.3649999999998</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>242</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>243</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>244</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4358,10 +4403,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -137,6 +137,24 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>AVOSOYA 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -158,6 +176,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -194,6 +221,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CITAPRONEX 5MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -329,6 +365,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>ENRICH ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -596,6 +641,15 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>42.5700</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -692,7 +746,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -737,7 +791,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:09 PM</t>
+    <t>Friday, 20 June, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,7 +1663,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1619,11 +1673,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1635,7 +1689,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1652,14 +1706,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1668,14 +1722,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1685,11 +1739,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1701,28 +1755,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>30</v>
@@ -1734,14 +1788,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1751,11 +1805,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -1767,14 +1821,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1784,11 +1838,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1800,28 +1854,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>30</v>
@@ -1833,14 +1887,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1850,14 +1904,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1866,7 +1920,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1879,15 +1933,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1899,14 +1953,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1916,11 +1970,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1932,14 +1986,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1956,7 +2010,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1972,7 +2026,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1982,11 +2036,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1998,7 +2052,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2011,18 +2065,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2031,14 +2085,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2055,7 +2109,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2071,7 +2125,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2081,11 +2135,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2097,14 +2151,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2114,14 +2168,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2137,7 +2191,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2154,7 +2208,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,7 +2241,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2196,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2213,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2229,14 +2283,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2246,14 +2300,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2269,7 +2323,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2286,7 +2340,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2302,7 +2356,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2312,14 +2366,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2328,14 +2382,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2345,14 +2399,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2361,14 +2415,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2378,14 +2432,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2394,14 +2448,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2411,14 +2465,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2434,7 +2488,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2467,7 +2521,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2477,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2493,7 +2547,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2510,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2526,7 +2580,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2543,11 +2597,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2559,14 +2613,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,7 +2630,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2599,7 +2653,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2632,7 +2686,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2649,7 +2703,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2665,7 +2719,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2682,7 +2736,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2691,7 +2745,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2708,11 +2762,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2724,14 +2778,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2741,14 +2795,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2757,7 +2811,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2774,11 +2828,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>30</v>
@@ -2790,14 +2844,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2807,14 +2861,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2823,14 +2877,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2840,14 +2894,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2856,14 +2910,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2873,11 +2927,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2889,7 +2943,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2906,7 +2960,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2929,7 +2983,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2946,7 +3000,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2962,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2972,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2988,7 +3042,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3005,11 +3059,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3021,14 +3075,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3054,14 +3108,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,11 +3125,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3087,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3104,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3120,31 +3174,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3153,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3170,11 +3224,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3186,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3219,14 +3273,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,11 +3290,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3252,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,11 +3323,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3285,31 +3339,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3318,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3389,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3368,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3384,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3417,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,31 +3504,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,31 +3537,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3516,28 +3570,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3549,31 +3603,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3582,28 +3636,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3615,31 +3669,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3648,31 +3702,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>225</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,31 +3735,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,28 +3768,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3747,28 +3801,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3780,28 +3834,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3813,31 +3867,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3846,7 +3900,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3859,18 +3913,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>62</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3879,31 +3933,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3912,28 +3966,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -3945,66 +3999,264 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4617.3649999999998</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>242</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>243</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>244</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>249</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>228</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>63</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>250</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>251</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>74</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>63</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>116</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>32</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>63</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>226</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>254</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>67</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>63</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>176</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>256</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>257</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>63</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>176</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>258</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>259</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>63</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>112</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5093.5649999999996</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>260</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>261</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>262</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4408,10 +4660,40 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -293,7 +293,10 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
@@ -344,9 +347,6 @@
     <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -791,7 +791,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:11 PM</t>
+    <t>Friday, 20 June, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2172,10 +2172,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2201,11 +2201,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>27</v>
@@ -2217,14 +2217,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2250,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2349,14 +2349,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>243</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="92" ht="25.5" customHeight="1">
       <c r="P92" s="13">
-        <v>5093.5649999999996</v>
+        <v>5107.4449999999997</v>
       </c>
       <c r="Q92" s="13"/>
     </row>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CITAPRONEX 5MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -707,6 +716,9 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>جيل فاتيكا برطمان اخضر</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -716,6 +728,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -791,7 +812,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:26 PM</t>
+    <t>Friday, 20 June, 2025 11:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1960,7 +1981,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2043,7 +2064,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2059,13 +2080,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2076,7 +2097,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2092,13 +2113,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2109,7 +2130,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2125,7 +2146,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2158,7 +2179,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2191,7 +2212,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2224,7 +2245,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2300,14 +2321,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2323,7 +2344,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2340,7 +2361,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2356,7 +2377,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2373,7 +2394,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2422,7 +2443,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2439,7 +2460,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2455,7 +2476,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,11 +2519,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2521,7 +2542,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2587,7 +2608,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2604,7 +2625,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2620,7 +2641,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2670,7 +2691,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2686,7 +2707,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2703,7 +2724,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2719,7 +2740,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2736,7 +2757,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2785,7 +2806,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2851,7 +2872,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2884,7 +2905,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2960,11 +2981,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -2976,7 +2997,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2993,7 +3014,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3033,7 +3054,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3049,7 +3070,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3066,7 +3087,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3099,7 +3120,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3115,7 +3136,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3148,7 +3169,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3165,7 +3186,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3181,7 +3202,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,14 +3245,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3247,7 +3268,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3261,7 +3282,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3313,7 +3334,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3346,24 +3367,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3372,28 +3393,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3412,7 +3433,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3471,7 +3492,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3488,11 +3509,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3504,31 +3525,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3544,24 +3565,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3624,10 +3645,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3707,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3709,24 +3730,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3752,14 +3773,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3785,11 +3806,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3801,14 +3822,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,11 +3839,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3841,7 +3862,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,11 +3872,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3867,7 +3888,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3884,14 +3905,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,14 +3921,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,14 +3938,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>243</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3933,14 +3954,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,14 +3971,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>215</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3966,14 +3987,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,14 +4004,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4006,7 +4027,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,14 +4037,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4032,14 +4053,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4049,14 +4070,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,14 +4086,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,11 +4103,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4098,14 +4119,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,14 +4136,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,14 +4152,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,14 +4169,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,14 +4185,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,11 +4202,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4197,14 +4218,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4214,49 +4235,148 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5107.4449999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>260</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>261</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>67</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>63</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>179</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>262</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>263</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>264</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>63</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>179</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>266</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>63</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>115</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5275.4449999999997</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>267</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>268</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>269</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4690,10 +4810,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -812,7 +812,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:30 PM</t>
+    <t>Friday, 20 June, 2025 11:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -812,7 +812,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:31 PM</t>
+    <t>Friday, 20 June, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -812,7 +812,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:40 PM</t>
+    <t>Friday, 20 June, 2025 11:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -518,6 +518,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -642,6 +651,15 @@
   </si>
   <si>
     <t>REVAREST VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>5.5000</t>
   </si>
   <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
@@ -3037,7 +3055,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3054,7 +3072,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,7 +3105,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3103,7 +3121,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3120,7 +3138,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3153,7 +3171,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3169,7 +3187,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3202,7 +3220,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3219,7 +3237,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3235,7 +3253,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3301,7 +3319,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3315,7 +3333,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3367,7 +3385,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3400,24 +3418,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,28 +3444,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3466,7 +3484,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,7 +3543,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3542,11 +3560,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3558,28 +3576,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3626,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,31 +3642,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3697,7 +3715,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,11 +3725,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3740,11 +3758,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3756,31 +3774,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3796,24 +3814,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3839,14 +3857,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,11 +3890,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3888,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3905,11 +3923,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,11 +3956,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -3961,7 +3979,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3994,7 +4012,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4011,7 +4029,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4027,7 +4045,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4041,10 +4059,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>218</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4103,14 +4121,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4152,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4169,11 +4187,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4202,11 +4220,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4235,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4301,14 +4319,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4334,49 +4352,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>270</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>63</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>182</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>271</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>272</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>63</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>115</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5275.4449999999997</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>267</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>268</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>269</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q96" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5297.9049999999997</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>273</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>274</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>275</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4825,10 +4909,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -242,348 +242,345 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>COXTORI 90MG TAB</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
+    <t>CYMBATEX 60 MG 30 CAP</t>
+  </si>
+  <si>
+    <t>295.50</t>
+  </si>
+  <si>
+    <t>97.5150</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>-19.9500</t>
+  </si>
+  <si>
+    <t>0:-4</t>
+  </si>
+  <si>
+    <t>DOXIPROCT RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>ENRICH ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>FUSIDERM 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>156.4200</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>NEOZOLID 600MG 3 TAB</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>COXTORI 90MG TAB</t>
-  </si>
-  <si>
-    <t>97.00</t>
-  </si>
-  <si>
-    <t>97.0000</t>
-  </si>
-  <si>
-    <t>CYMBATEX 60 MG 30 CAP</t>
-  </si>
-  <si>
-    <t>295.50</t>
-  </si>
-  <si>
-    <t>97.5150</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>288.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>-19.9500</t>
-  </si>
-  <si>
-    <t>0:-4</t>
-  </si>
-  <si>
-    <t>DOXIPROCT RECTAL OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>ENRICH ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>236.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>FUSIDERM 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40MG 28 E.C. TABS.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>JOYPOX 60MG 3 TAB</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>16.9600</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>156.4200</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>NEOZOLID 600MG 3 TAB</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
     <t>-24.0000</t>
   </si>
   <si>
@@ -731,9 +728,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>جيل فاتيكا برطمان اخضر</t>
   </si>
   <si>
@@ -830,7 +824,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:45 PM</t>
+    <t>Friday, 20 June, 2025 11:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,7 +2026,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2042,14 +2036,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2058,14 +2052,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2075,11 +2069,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -2091,7 +2085,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2108,11 +2102,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2124,7 +2118,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2141,11 +2135,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2157,7 +2151,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2174,11 +2168,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2190,7 +2184,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2207,11 +2201,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2223,14 +2217,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2244,7 +2238,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -2256,7 +2250,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2273,11 +2267,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>27</v>
@@ -2289,14 +2283,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2306,11 +2300,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2322,14 +2316,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2355,7 +2349,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2372,11 +2366,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>27</v>
@@ -2388,7 +2382,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2405,11 +2399,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2421,14 +2415,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2438,14 +2432,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2454,7 +2448,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2471,11 +2465,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2487,7 +2481,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2504,11 +2498,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2520,7 +2514,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2537,11 +2531,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2553,7 +2547,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2570,11 +2564,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2586,7 +2580,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2607,7 +2601,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2619,7 +2613,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2636,11 +2630,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2652,7 +2646,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2669,11 +2663,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2685,14 +2679,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2702,11 +2696,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2718,7 +2712,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2735,11 +2729,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2751,7 +2745,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2768,11 +2762,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2784,7 +2778,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2801,14 +2795,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2817,7 +2811,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2834,11 +2828,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2850,7 +2844,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2867,11 +2861,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2883,7 +2877,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2900,11 +2894,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2916,7 +2910,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2933,11 +2927,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2949,7 +2943,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2966,11 +2960,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2982,7 +2976,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2999,11 +2993,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -3015,7 +3009,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3032,11 +3026,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -3048,7 +3042,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3065,11 +3059,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3081,7 +3075,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3098,11 +3092,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3114,7 +3108,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3131,11 +3125,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>35</v>
@@ -3147,7 +3141,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3164,11 +3158,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3180,7 +3174,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3197,11 +3191,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3213,7 +3207,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3230,11 +3224,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3246,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,11 +3257,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3279,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3300,7 +3294,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3312,7 +3306,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3329,11 +3323,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3345,7 +3339,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3362,11 +3356,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3378,14 +3372,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,11 +3389,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3411,14 +3405,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,11 +3422,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3444,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,11 +3455,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3477,7 +3471,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3494,11 +3488,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3510,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>211</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>212</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,7 +3537,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3560,11 +3554,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3576,7 +3570,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3593,11 +3587,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3609,7 +3603,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3626,11 +3620,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3642,7 +3636,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3659,11 +3653,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3675,7 +3669,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3692,7 +3686,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3708,14 +3702,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,11 +3719,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3741,7 +3735,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3758,7 +3752,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3774,7 +3768,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3791,11 +3785,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3807,7 +3801,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3824,11 +3818,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3840,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,11 +3851,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3873,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3884,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3906,14 +3900,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,11 +3917,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -3939,7 +3933,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3956,11 +3950,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -3972,7 +3966,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3989,11 +3983,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4005,14 +3999,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,11 +4016,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4038,7 +4032,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4055,11 +4049,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4071,7 +4065,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4088,14 +4082,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,7 +4098,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4121,14 +4115,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,7 +4131,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4154,14 +4148,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,11 +4181,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4203,14 +4197,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,11 +4214,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4236,14 +4230,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,11 +4247,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4269,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,11 +4280,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>30</v>
@@ -4302,7 +4296,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4319,14 +4313,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,7 +4329,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4352,11 +4346,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4368,14 +4362,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,11 +4379,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>30</v>
@@ -4401,14 +4395,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,11 +4412,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>30</v>
@@ -4430,13 +4424,13 @@
     </row>
     <row r="97" ht="25.5" customHeight="1">
       <c r="P97" s="13">
-        <v>5297.9049999999997</v>
+        <v>5282.9049999999997</v>
       </c>
       <c r="Q97" s="13"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
       <c t="s" r="A98" s="14">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4444,13 +4438,13 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c t="s" r="G98" s="15">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="16"/>
       <c t="s" r="K98" s="17">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -710,12 +710,15 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -803,9 +806,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -824,7 +824,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:46 PM</t>
+    <t>Friday, 20 June, 2025 11:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3855,10 +3855,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3867,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3900,14 +3900,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3983,11 +3983,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4016,11 +4016,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4049,11 +4049,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4082,11 +4082,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>189</v>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4115,14 +4115,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4148,11 +4148,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>223</v>
@@ -4164,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4181,11 +4181,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4230,14 +4230,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,11 +4247,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4317,10 +4317,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4424,7 +4424,7 @@
     </row>
     <row r="97" ht="25.5" customHeight="1">
       <c r="P97" s="13">
-        <v>5282.9049999999997</v>
+        <v>5312.9049999999997</v>
       </c>
       <c r="Q97" s="13"/>
     </row>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -824,7 +824,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Friday, 20 June, 2025 11:47 PM</t>
+    <t>Friday, 20 June, 2025 11:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:01 AM</t>
+    <t>Saturday, 21 June, 2025 12:11 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:11 AM</t>
+    <t>Saturday, 21 June, 2025 12:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-20_00-00.xlsx
+++ b/DaySale_2025-06-20_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 12:22 AM</t>
+    <t>Saturday, 21 June, 2025 12:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
